--- a/Onto_Temporal/Ontologia_V1_Projeto_Temporal.xlsx
+++ b/Onto_Temporal/Ontologia_V1_Projeto_Temporal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Temporal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65851E6-88D7-4572-A205-1E977AF0AB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFD3804-968D-4ADD-A80D-56BA8418AFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="135">
   <si>
     <t>Escopo</t>
   </si>
@@ -162,9 +162,6 @@
     <t>tem.início</t>
   </si>
   <si>
-    <t>Alvenarias</t>
-  </si>
-  <si>
     <t>Opcional</t>
   </si>
   <si>
@@ -204,21 +201,12 @@
     <t>ProjetoBásico</t>
   </si>
   <si>
-    <t>Alvenarias.Andar1</t>
-  </si>
-  <si>
-    <t>Alvenarias.Andar2</t>
-  </si>
-  <si>
     <t>Reunião.Investidores</t>
   </si>
   <si>
     <t>tem.identidade</t>
   </si>
   <si>
-    <t>Obra</t>
-  </si>
-  <si>
     <t>no.processo.de</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>Crono.Omega</t>
   </si>
   <si>
-    <t>"Data cronológica inicial do evento com data e hora."</t>
-  </si>
-  <si>
     <t>"Duração Parcial de um evento."</t>
   </si>
   <si>
@@ -333,12 +318,6 @@
     <t>Crono.F</t>
   </si>
   <si>
-    <t>"Data cronológica declarada como o início absoluto do empreendimento."</t>
-  </si>
-  <si>
-    <t>"Data cronológica declarada como o final do empreendimento. Pode ser deixado em aberto."</t>
-  </si>
-  <si>
     <t>Único</t>
   </si>
   <si>
@@ -414,9 +393,6 @@
     <t>Dur.P</t>
   </si>
   <si>
-    <t>Projetação</t>
-  </si>
-  <si>
     <t>Simulação</t>
   </si>
   <si>
@@ -436,12 +412,48 @@
   </si>
   <si>
     <t>identificador</t>
+  </si>
+  <si>
+    <t>"Evento real acontecido em etapa operacional do empreendimento."</t>
+  </si>
+  <si>
+    <t>"Momento cronológico declarado como o início absoluto do empreendimento."</t>
+  </si>
+  <si>
+    <t>"Momento cronológico inicial de um evento com data e hora."</t>
+  </si>
+  <si>
+    <t>"Momento cronológico final de um evento com data e hora."</t>
+  </si>
+  <si>
+    <t>Projetual</t>
+  </si>
+  <si>
+    <t>Construtiva</t>
+  </si>
+  <si>
+    <t>Alv.Térreo</t>
+  </si>
+  <si>
+    <t>Alv.Andar1</t>
+  </si>
+  <si>
+    <t>Alv.Andar2</t>
+  </si>
+  <si>
+    <t>Reparação.Elevador</t>
+  </si>
+  <si>
+    <t>"Momento cronológico declarado como o final do empreendimento. Pode ficar em aberto."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -660,21 +672,23 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -689,8 +703,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -705,7 +719,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1007,14 +1021,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="56.5703125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.5546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="56.5703125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="56.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1069,7 @@
         <v>BIM.Prop</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1078,7 @@
         <v>BIM.Data</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1088,7 +1102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1136,7 +1150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1144,16 +1158,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="10">
         <f ca="1">NOW()</f>
-        <v>45375.547582870371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45376.354136226852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
@@ -1169,35 +1183,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB562E2-4AE2-4803-9404-94F78FD89919}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="20" customWidth="1"/>
-    <col min="12" max="13" width="7.28515625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="43.7109375" style="22" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="22" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="2.5546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="7" style="20" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="20" customWidth="1"/>
+    <col min="12" max="13" width="7.33203125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="42" style="22" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="21" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="22" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -1250,28 +1264,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="23" t="str">
-        <f>B2</f>
-        <v>Dur.T</v>
+        <v>13</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>13</v>
@@ -1295,38 +1308,37 @@
         <v>34</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="14" t="str">
         <f>_xlfn.CONCAT("""",B2,"""")</f>
         <v>"Dur.T"</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="23" t="str">
-        <f>B3</f>
-        <v>Dur.P</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>13</v>
@@ -1350,38 +1362,37 @@
         <v>34</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="14" t="str">
-        <f t="shared" ref="Q3:Q48" si="0">_xlfn.CONCAT("""",B3,"""")</f>
+        <f t="shared" ref="Q3:Q49" si="0">_xlfn.CONCAT("""",B3,"""")</f>
         <v>"Dur.P"</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>112</v>
+      <c r="B4" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="23" t="str">
-        <f t="shared" ref="E4:E5" si="1">B4</f>
-        <v>Data0</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>13</v>
@@ -1405,38 +1416,37 @@
         <v>34</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Data0"</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>113</v>
+      <c r="B5" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>Hora0</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>13</v>
@@ -1460,38 +1470,37 @@
         <v>34</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Hora0"</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="23" t="str">
-        <f t="shared" ref="E6:E9" si="2">B6</f>
-        <v>DataW</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>13</v>
@@ -1515,38 +1524,37 @@
         <v>34</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"DataW"</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>HoraW</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>13</v>
@@ -1570,38 +1578,37 @@
         <v>34</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"HoraW"</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>DataI</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>13</v>
@@ -1625,38 +1632,37 @@
         <v>34</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"DataI"</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>HoraI</v>
+        <v>13</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>13</v>
@@ -1680,38 +1686,37 @@
         <v>34</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"HoraI"</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>10</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="23" t="str">
-        <f t="shared" ref="E10:E11" si="3">B10</f>
-        <v>DataF</v>
+        <v>13</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>13</v>
@@ -1735,38 +1740,37 @@
         <v>34</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"DataF"</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>HoraF</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>13</v>
@@ -1790,105 +1794,105 @@
         <v>34</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"HoraF"</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f t="shared" ref="E12:E13" si="4">B12</f>
+        <f t="shared" ref="E12:E13" si="1">B12</f>
         <v>Crono.Zero</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Crono.Zero"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Crono.Omega</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>"Crono.Zero"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>Crono.Omega</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>120</v>
-      </c>
       <c r="I13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="K13" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>13</v>
@@ -1900,51 +1904,51 @@
         <v>34</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Crono.Omega"</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>14</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="23" t="str">
+        <f t="shared" ref="E14:E49" si="2">B14</f>
+        <v>Crono.I1</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="23" t="str">
-        <f t="shared" ref="E14:E48" si="5">B14</f>
-        <v>Crono.I1</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="L14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1955,50 +1959,50 @@
         <v>34</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Crono.I1"</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Crono.F1</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Crono.F1</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="J15" s="18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>13</v>
@@ -2010,292 +2014,292 @@
         <v>34</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Crono.F1"</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Global.VU</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Global.VU"</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Concepção</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Concepção"</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Legalização</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N18" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Legalização"</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Definição</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N19" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Definição"</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>20</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Finalização</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Finalização"</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -2306,381 +2310,381 @@
         <v>32</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f t="shared" ref="E21" si="6">B21</f>
-        <v>Construção</v>
+        <f t="shared" ref="E21" si="3">B21</f>
+        <v>Construtiva</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N21" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Construção"</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Construtiva"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Entrega</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Entrega"</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Operacional</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N23" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Operacional"</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Reunião.Investidores</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Reunião.Investidores"</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f t="shared" ref="E25" si="7">B25</f>
+        <f t="shared" ref="E25" si="4">B25</f>
         <v>Estudo.A01</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N25" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Estudo.A01"</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Estudo.A02</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Estudo.A02"</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f t="shared" ref="E27:E34" si="8">B27</f>
+        <f t="shared" ref="E27:E34" si="5">B27</f>
         <v>Programa.P01</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N27" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Programa.P01"</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>28</v>
       </c>
@@ -2688,54 +2692,54 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>Levantamento</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J28" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N28" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Levantamento"</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>29</v>
       </c>
@@ -2743,109 +2747,109 @@
         <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>Licenciamento</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N29" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Licenciamento"</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>ProjetoBásico</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L30" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N30" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"ProjetoBásico"</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>31</v>
       </c>
@@ -2853,54 +2857,54 @@
         <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>Anteprojeto</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N31" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Anteprojeto"</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>32</v>
       </c>
@@ -2908,54 +2912,54 @@
         <v>29</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>ProjetoExecutivo</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L32" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N32" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"ProjetoExecutivo"</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>33</v>
       </c>
@@ -2963,292 +2967,292 @@
         <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>ProjetoAsBuilt</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L33" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N33" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"ProjetoAsBuilt"</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>TesteAcustico.01</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q34" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"TesteAcustico.01"</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>TesteEscape.01</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N35" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"TesteEscape.01"</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f t="shared" ref="E36" si="9">B36</f>
+        <f t="shared" ref="E36" si="6">B36</f>
         <v>Cantero.01</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L36" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N36" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q36" s="14" t="str">
         <f t="shared" si="0"/>
         <v>"Cantero.01"</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Alvenarias</v>
+        <f t="shared" si="2"/>
+        <v>Alv.Térreo</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L37" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N37" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q37" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Alvenarias"</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Alv.Térreo"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>57</v>
-      </c>
       <c r="E38" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Alvenarias.Andar1</v>
+        <f t="shared" si="2"/>
+        <v>Alv.Andar1</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>129</v>
@@ -3257,53 +3261,53 @@
         <v>39</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J38" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L38" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N38" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q38" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Alvenarias.Andar1"</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Alv.Andar1"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f t="shared" ref="E39" si="10">B39</f>
-        <v>Alvenarias.Andar2</v>
+        <f t="shared" ref="E39:E40" si="7">B39</f>
+        <v>Alv.Andar2</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>129</v>
@@ -3312,145 +3316,145 @@
         <v>39</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J39" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L39" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N39" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q39" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Alvenarias.Andar2"</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Alv.Andar2"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Liga.Bomba</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J40" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L40" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N40" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q40" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q40" si="8">_xlfn.CONCAT("""",B40,"""")</f>
         <v>"Liga.Bomba"</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E41" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Obrigatório</v>
+        <f t="shared" si="2"/>
+        <v>Reparação.Elevador</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J41" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N41" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="P41" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q41" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Obrigatório"</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Reparação.Elevador"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -3461,426 +3465,481 @@
         <v>23</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E42" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Opcional</v>
+        <f t="shared" si="2"/>
+        <v>Obrigatório</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J42" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N42" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q42" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Opcional"</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Obrigatório"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E43" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Esperado</v>
+        <f t="shared" si="2"/>
+        <v>Opcional</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J43" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N43" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q43" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Esperado"</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Opcional"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E44" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Inesperado</v>
+        <f t="shared" si="2"/>
+        <v>Esperado</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J44" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N44" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q44" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Inesperado"</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Esperado"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E45" s="23" t="str">
-        <f t="shared" ref="E45" si="11">B45</f>
-        <v>Único</v>
+        <f t="shared" si="2"/>
+        <v>Inesperado</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J45" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L45" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N45" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P45" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q45" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Único"</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Inesperado"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E46" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Regular</v>
+        <f t="shared" ref="E46" si="9">B46</f>
+        <v>Único</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J46" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L46" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N46" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="P46" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q46" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Regular"</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Único"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E47" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Periódico</v>
+        <f t="shared" si="2"/>
+        <v>Regular</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J47" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L47" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N47" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q47" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>"Periódico"</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Regular"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E48" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Aperiódico</v>
+        <f t="shared" si="2"/>
+        <v>Periódico</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J48" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>33</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N48" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P48" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q48" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>"Periódico"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>49</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Aperiódico</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>"Aperiódico"</v>
       </c>
     </row>
-    <row r="49" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="17"/>
-    </row>
-    <row r="50" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="17"/>
     </row>
-    <row r="51" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="17"/>
     </row>
-    <row r="52" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="17"/>
     </row>
-    <row r="53" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="17"/>
     </row>
-    <row r="54" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="17"/>
     </row>
-    <row r="55" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="17"/>
     </row>
-    <row r="56" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="17"/>
     </row>
-    <row r="57" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="17"/>
     </row>
-    <row r="58" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="17"/>
     </row>
-    <row r="59" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="17"/>
     </row>
-    <row r="61" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="17"/>
     </row>
-    <row r="62" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="17"/>
+    </row>
+    <row r="63" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B1:B4 B6:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
